--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1768590.953202264</v>
+        <v>1777284.279489905</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7779772.095316382</v>
+        <v>7779772.095316381</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>113.1480979668291</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>176.8004988171164</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>190.3453970742848</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>208.0250417001232</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>182.2165746581477</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>167.4965983701393</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>55.54022196058087</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>89.66547645067553</v>
       </c>
       <c r="S9" t="n">
-        <v>169.9991617898137</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>404.0181936006798</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>135.7219182492188</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>219.9881595201824</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1549,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -1625,7 +1625,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.0593578808873</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.347200282567</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>383.1282703720283</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>318.2801892474972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>45.59910121103272</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.5544594002519</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.3491759459578</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>8.719425014937073</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>89.95330195436217</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,7 +2175,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>67.30996878196338</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.48633311208273</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>50.15718953603344</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>102.9013068748127</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>203.8766041230049</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>190.6229382239248</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>122.3078802415595</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>220.2154803960496</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>131.0502660741627</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>166.7979988061142</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>91.35315769505117</v>
       </c>
       <c r="G28" t="n">
-        <v>114.7943575370069</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>81.42069280099933</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>136.4417058702714</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>67.30996878196353</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>121.4165796131833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.50575017090058</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>121.3936468124855</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>121.9203896453317</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>117.889549819912</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>66.97649427705925</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3360,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121529013</v>
+        <v>100.053298877208</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.21297465918771</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>137.8895826273125</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>125.8518557199465</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>100.053298877208</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571424</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>100.053298877208</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>115.1165353722839</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>77.41754251185412</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>370.3219080961781</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>258.8065064719383</v>
       </c>
     </row>
     <row r="42">
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>103.9357482121867</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,28 +3940,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>75.35307017491665</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26.42586184748497</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>246.5625815687748</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4104,16 +4104,16 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V45" t="n">
-        <v>226.8900869672238</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>748.5966180162197</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>546.4100233749857</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>318.1864051113748</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>318.1864051113748</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>318.1864051113748</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>678.8304799441808</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>678.8304799441808</v>
       </c>
       <c r="V6" t="n">
-        <v>318.0952036707959</v>
+        <v>678.8304799441808</v>
       </c>
       <c r="W6" t="n">
-        <v>318.0952036707959</v>
+        <v>678.8304799441808</v>
       </c>
       <c r="X6" t="n">
-        <v>318.0952036707959</v>
+        <v>678.8304799441808</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>678.8304799441808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>325.7766548071333</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>318.8311540579298</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W8" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>873.4859671766205</v>
       </c>
       <c r="S9" t="n">
-        <v>691.171301023306</v>
+        <v>700.0686226272894</v>
       </c>
       <c r="T9" t="n">
-        <v>691.171301023306</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U9" t="n">
-        <v>462.9476827596951</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V9" t="n">
-        <v>227.7955745279523</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4978,28 +4978,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1730.105558044417</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C11" t="n">
-        <v>1730.105558044417</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D11" t="n">
-        <v>1371.839859437666</v>
+        <v>840.7824344951207</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>454.9941818968765</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1730.105558044417</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1730.105558044417</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1730.105558044417</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1730.105558044417</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1730.105558044417</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5148,7 +5148,7 @@
         <v>2284.306083296871</v>
       </c>
       <c r="T12" t="n">
-        <v>2284.306083296871</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U12" t="n">
         <v>2062.095821155272</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5200,49 +5200,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.74358883188</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1153.781071891469</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>795.5153732847182</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>795.5153732847182</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.343428896002</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156131</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
         <v>2344.749822082216</v>
@@ -5379,13 +5379,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
         <v>2062.095821155272</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5440,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="D17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="E17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5552,13 +5552,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y17" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="18">
@@ -5577,16 +5577,16 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>252.6856278197748</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5595,22 +5595,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="F19" t="n">
-        <v>205.8715591182311</v>
+        <v>171.697480684323</v>
       </c>
       <c r="G19" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5698,25 +5698,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.8715591182311</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.89499644164432</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="C20" t="n">
-        <v>46.89499644164432</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="D20" t="n">
-        <v>46.89499644164432</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E20" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5780,22 +5780,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2078.373664114134</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2078.373664114134</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>2078.373664114134</v>
       </c>
       <c r="W20" t="n">
-        <v>929.5804400319823</v>
+        <v>2078.373664114134</v>
       </c>
       <c r="X20" t="n">
-        <v>556.1146817709025</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9753497950908</v>
+        <v>1704.907905853054</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>882.1192016864297</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>707.6661724053027</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>558.7317627440515</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>399.494307738596</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>252.959749765481</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>114.884863898173</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5829,22 +5829,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5856,25 +5856,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T21" t="n">
-        <v>2183.516266982771</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U21" t="n">
-        <v>1955.335802636929</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.183694405186</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W21" t="n">
-        <v>1465.946337676985</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X21" t="n">
-        <v>1258.094837471452</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y21" t="n">
-        <v>1050.334538706498</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5929,31 +5929,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>338.8858918600055</v>
+        <v>557.1047456221351</v>
       </c>
       <c r="W22" t="n">
-        <v>338.8858918600055</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X22" t="n">
-        <v>338.8858918600055</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y22" t="n">
-        <v>118.0933127164754</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1310.441992089288</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C23" t="n">
-        <v>1310.441992089288</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D23" t="n">
-        <v>1310.441992089288</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>1310.441992089288</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>899.4560872996806</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>481.1843197825654</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>150.8357104566067</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6011,28 +6011,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2087.181164129222</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U23" t="n">
-        <v>2087.181164129222</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V23" t="n">
-        <v>2087.181164129222</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W23" t="n">
-        <v>2087.181164129222</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X23" t="n">
-        <v>2087.181164129222</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.04183215341</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G24" t="n">
         <v>221.6448824165167</v>
@@ -6066,16 +6066,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T24" t="n">
-        <v>2284.306083296871</v>
+        <v>2152.201399633807</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="E25" t="n">
         <v>1783.87624508755</v>
@@ -6166,31 +6166,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>2303.765562347826</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>2149.407627422406</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>1932.711800928527</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T25" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.87624508755</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W25" t="n">
-        <v>1783.87624508755</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.87624508755</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>1931.789338669943</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1484.38080053454</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C26" t="n">
-        <v>1484.38080053454</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D26" t="n">
-        <v>1484.38080053454</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E26" t="n">
-        <v>1098.592547936296</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>687.6066431466884</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>269.3348756295732</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6224,10 +6224,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
         <v>762.591673824455</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2138.002270855728</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713795</v>
+        <v>1918.019511487306</v>
       </c>
       <c r="U26" t="n">
-        <v>1870.980640598662</v>
+        <v>1918.019511487306</v>
       </c>
       <c r="V26" t="n">
-        <v>1870.980640598662</v>
+        <v>1918.019511487306</v>
       </c>
       <c r="W26" t="n">
-        <v>1870.980640598662</v>
+        <v>1565.250856217192</v>
       </c>
       <c r="X26" t="n">
-        <v>1870.980640598662</v>
+        <v>1191.785097956112</v>
       </c>
       <c r="Y26" t="n">
-        <v>1870.980640598662</v>
+        <v>801.6457659803002</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>982.9090180005296</v>
       </c>
       <c r="C27" t="n">
         <v>814.4261909236466</v>
@@ -6327,28 +6327,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T27" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>2056.125618951029</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1820.973510719286</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1566.736153991084</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1358.884653785552</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>1151.124355020598</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D28" t="n">
-        <v>2194.633182669881</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E28" t="n">
-        <v>2046.720089087487</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F28" t="n">
-        <v>1899.830141589577</v>
+        <v>515.4926565726222</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1245.115185688779</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C29" t="n">
-        <v>876.152668748367</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D29" t="n">
-        <v>876.152668748367</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E29" t="n">
-        <v>876.152668748367</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6467,7 +6467,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>2090.963399967084</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V29" t="n">
-        <v>2090.963399967084</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W29" t="n">
-        <v>2008.72027592567</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X29" t="n">
-        <v>1635.25451766459</v>
+        <v>791.7605351125167</v>
       </c>
       <c r="Y29" t="n">
-        <v>1245.115185688779</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,49 +6543,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V30" t="n">
-        <v>1695.349365905614</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>344.9247294363731</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9247294363731</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
         <v>46.89499644164432</v>
@@ -6643,28 +6643,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>491.4892447774382</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W31" t="n">
-        <v>572.9142803343905</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>344.9247294363731</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>344.9247294363731</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>169.5148417067812</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C32" t="n">
-        <v>169.5148417067812</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D32" t="n">
-        <v>169.5148417067812</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E32" t="n">
-        <v>169.5148417067812</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F32" t="n">
-        <v>169.5148417067812</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G32" t="n">
-        <v>169.5148417067812</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>169.5148417067812</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6734,16 +6734,16 @@
         <v>1613.411982645668</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="X32" t="n">
-        <v>556.114681770903</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="Y32" t="n">
-        <v>556.114681770903</v>
+        <v>1490.260073913009</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6777,7 +6777,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
         <v>121.6684232076319</v>
@@ -6819,10 +6819,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1205.95990094567</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>215.8311793695513</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="E34" t="n">
         <v>46.89499644164432</v>
@@ -6883,25 +6883,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>397.479644199791</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>397.479644199791</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>397.479644199791</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V34" t="n">
-        <v>397.479644199791</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W34" t="n">
-        <v>397.479644199791</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X34" t="n">
-        <v>397.479644199791</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y34" t="n">
-        <v>397.479644199791</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.9753497950908</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C35" t="n">
-        <v>165.9753497950908</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6938,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319823</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X35" t="n">
-        <v>556.1146817709025</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.9753497950908</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7017,49 +7017,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="C37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="E37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="F37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="G37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="H37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="I37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S37" t="n">
-        <v>391.0727469424309</v>
+        <v>1932.711800928527</v>
       </c>
       <c r="T37" t="n">
-        <v>391.0727469424309</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="U37" t="n">
-        <v>391.0727469424309</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="V37" t="n">
-        <v>391.0727469424309</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="W37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="X37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="Y37" t="n">
-        <v>101.6555769054703</v>
+        <v>1839.299266942299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1896.910518730166</v>
+        <v>542.9805999678606</v>
       </c>
       <c r="C38" t="n">
-        <v>1896.910518730166</v>
+        <v>174.0180830274489</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.628112035911</v>
+        <v>174.0180830274489</v>
       </c>
       <c r="E38" t="n">
-        <v>1371.839859437666</v>
+        <v>174.0180830274489</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>174.0180830274489</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>174.0180830274489</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7199,25 +7199,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.376276991246</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.376276991246</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W38" t="n">
-        <v>2270.376276991246</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X38" t="n">
-        <v>1896.910518730166</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y38" t="n">
-        <v>1896.910518730166</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>982.9090180005296</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C39" t="n">
-        <v>808.4559887194026</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D39" t="n">
-        <v>659.5215790581514</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E39" t="n">
-        <v>500.2841240526959</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F39" t="n">
-        <v>353.7495660795809</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G39" t="n">
-        <v>215.6746802122729</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7254,22 +7254,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7281,22 +7281,22 @@
         <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U39" t="n">
-        <v>2056.125618951029</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V39" t="n">
-        <v>1820.973510719286</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W39" t="n">
-        <v>1566.736153991084</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X39" t="n">
-        <v>1358.884653785552</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y39" t="n">
-        <v>1151.124355020598</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2228.470493423344</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>2011.774666929465</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W40" t="n">
-        <v>274.8845473396617</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.708299410783</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="C41" t="n">
-        <v>806.7457824703715</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="D41" t="n">
-        <v>806.7457824703715</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E41" t="n">
-        <v>420.9575298721273</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7433,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V41" t="n">
-        <v>1939.313389647675</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W41" t="n">
-        <v>1939.313389647675</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X41" t="n">
-        <v>1565.847631386595</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="Y41" t="n">
-        <v>1175.708299410783</v>
+        <v>1532.283461762205</v>
       </c>
     </row>
     <row r="42">
@@ -7488,40 +7488,40 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V42" t="n">
         <v>1826.94371292353</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.8806006963783</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
         <v>46.89499644164432</v>
@@ -7588,31 +7588,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T43" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U43" t="n">
-        <v>379.8701515943957</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V43" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>151.8806006963783</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.8806006963783</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1398.532649182601</v>
+        <v>746.2061227080147</v>
       </c>
       <c r="C44" t="n">
-        <v>1398.532649182601</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D44" t="n">
-        <v>1398.532649182601</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7688,10 +7688,10 @@
         <v>1771.99840744368</v>
       </c>
       <c r="X44" t="n">
-        <v>1398.532649182601</v>
+        <v>1522.945294747948</v>
       </c>
       <c r="Y44" t="n">
-        <v>1398.532649182601</v>
+        <v>1132.805962772137</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,13 +7752,13 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U45" t="n">
-        <v>2056.125618951029</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
         <v>1826.94371292353</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2303.765562347826</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R46" t="n">
-        <v>2149.407627422406</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S46" t="n">
-        <v>1932.711800928527</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>238.6269471880057</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082737</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970537</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L18" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>476.3749567889585</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>323.3866360392485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,10 +11312,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.857852141031628</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>115.5266396447624</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23388,10 +23388,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>5.910500182201929</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>41.72357389385013</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.2722373409284</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23744,7 +23744,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>30.96077946991562</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>30.96077946991579</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23817,19 +23817,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>43.89210145070376</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23938,13 +23938,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9401578555783</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24020,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.0635067598004</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>76.57988169550516</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24063,10 +24063,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38.65383027744605</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.3456470698546</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24178,16 +24178,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>201.9804537877946</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>60.78388867489443</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>123.87565434713</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24297,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>6.924332742584795</v>
       </c>
       <c r="U24" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>103.4017751474776</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8296428366495</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>50.31289565924112</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>5.910500182201531</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>143.6184697512195</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>54.06789032788008</v>
       </c>
       <c r="G28" t="n">
-        <v>52.6522033139487</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>267.8202759164137</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>233.2893948081976</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24774,10 +24774,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>130.2373021845461</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,13 +24883,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>37.69782020388202</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>252.0172481656904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,10 +24932,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.2915487372217</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,13 +24974,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>205.8318688248032</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25005,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.31564129514277</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5960985472141</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,16 +25123,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>6.342828284786464</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>236.793491800771</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.65331536300188</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512195</v>
+        <v>97.49397208930165</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6558169770141049</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771301</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>216.7934589933704</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>201.1932675127526</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25439,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25485,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>5.910500182201389</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>97.49397208930165</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>37.69782020388146</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>209.1054558247369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>36.55413764553333</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>127.4314321841152</v>
       </c>
     </row>
     <row r="42">
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>63.31107288644117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,28 +25828,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>176.7845731489114</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>355.5045082247768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>123.1685191096942</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V45" t="n">
-        <v>5.910500182201446</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594673.4839749606</v>
+        <v>594673.4839749609</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594673.4839749609</v>
+        <v>594673.4839749606</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594673.4839749606</v>
+        <v>594673.4839749607</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594673.4839749607</v>
+        <v>594673.4839749606</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594673.4839749609</v>
+        <v>594673.4839749606</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594673.4839749607</v>
+        <v>594673.4839749605</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594673.4839749607</v>
+        <v>594673.4839749606</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594673.4839749609</v>
+        <v>594673.4839749606</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>356907.7346816906</v>
       </c>
       <c r="F2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816904</v>
       </c>
       <c r="G2" t="n">
         <v>356907.7346816905</v>
@@ -26335,7 +26335,7 @@
         <v>356907.7346816905</v>
       </c>
       <c r="J2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="K2" t="n">
         <v>356907.7346816905</v>
@@ -26344,16 +26344,16 @@
         <v>356907.7346816905</v>
       </c>
       <c r="M2" t="n">
+        <v>356907.7346816904</v>
+      </c>
+      <c r="N2" t="n">
         <v>356907.7346816905</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>356907.7346816905</v>
+      </c>
+      <c r="P2" t="n">
         <v>356907.7346816906</v>
-      </c>
-      <c r="O2" t="n">
-        <v>356907.7346816906</v>
-      </c>
-      <c r="P2" t="n">
-        <v>356907.7346816905</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.374401997774843e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007597</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="C4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119917.0549294651</v>
+        <v>120924.6985160033</v>
       </c>
       <c r="C6" t="n">
-        <v>200686.4864610127</v>
+        <v>201694.1300475509</v>
       </c>
       <c r="D6" t="n">
-        <v>200686.4864610127</v>
+        <v>201694.1300475509</v>
       </c>
       <c r="E6" t="n">
-        <v>-58690.64264175546</v>
+        <v>-57636.35009032761</v>
       </c>
       <c r="F6" t="n">
-        <v>286921.700137197</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="G6" t="n">
-        <v>286921.700137197</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="H6" t="n">
-        <v>286921.7001371972</v>
+        <v>287975.9926886251</v>
       </c>
       <c r="I6" t="n">
-        <v>286921.700137197</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="J6" t="n">
-        <v>223861.7575380908</v>
+        <v>224916.0500895188</v>
       </c>
       <c r="K6" t="n">
-        <v>286921.700137197</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="L6" t="n">
-        <v>286921.7001371971</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="M6" t="n">
-        <v>200903.1663171211</v>
+        <v>201957.4588685489</v>
       </c>
       <c r="N6" t="n">
-        <v>286921.7001371972</v>
+        <v>287975.992688625</v>
       </c>
       <c r="O6" t="n">
-        <v>286921.7001371972</v>
+        <v>287975.9926886249</v>
       </c>
       <c r="P6" t="n">
-        <v>286921.700137197</v>
+        <v>287975.9926886251</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26796,7 +26796,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
         <v>586.1874555205541</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.205731028013953e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428948</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>154.3469453318533</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,13 +27394,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27433,10 +27433,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.53507313700868</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>28.88219696018791</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,22 +27667,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>137.4068613958501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>178.2128969559303</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>17.94815403667388</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>65.30398877928593</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>137.4717399996488</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>359.7625155545542</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,16 +27907,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>191.5737876464859</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10.49235770196761</v>
       </c>
       <c r="S9" t="n">
-        <v>1.684009314024081</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31756,25 +31756,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31783,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31859,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31868,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32558,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>104.6525397736754</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35416,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503788</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35507,7 +35507,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35741,7 +35741,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209684</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L18" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35981,7 +35981,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,13 +36209,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>513.9261999082065</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36446,7 +36446,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36911,7 +36911,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36926,10 +36926,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37385,7 +37385,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,7 +37631,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37868,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9378791584966</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37877,7 +37877,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,10 +38032,10 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
@@ -38114,7 +38114,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
